--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.183851</v>
+        <v>3.781261333333333</v>
       </c>
       <c r="H2">
-        <v>3.551553</v>
+        <v>11.343784</v>
       </c>
       <c r="I2">
-        <v>0.8038998122413226</v>
+        <v>0.9290464905550602</v>
       </c>
       <c r="J2">
-        <v>0.8038998122413226</v>
+        <v>0.9290464905550602</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N2">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q2">
-        <v>4.324412762202</v>
+        <v>3.549322544408</v>
       </c>
       <c r="R2">
-        <v>38.919714859818</v>
+        <v>31.943902899672</v>
       </c>
       <c r="S2">
-        <v>0.1166973851011375</v>
+        <v>0.03884571222683093</v>
       </c>
       <c r="T2">
-        <v>0.1166973851011375</v>
+        <v>0.03884571222683093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.183851</v>
+        <v>3.781261333333333</v>
       </c>
       <c r="H3">
-        <v>3.551553</v>
+        <v>11.343784</v>
       </c>
       <c r="I3">
-        <v>0.8038998122413226</v>
+        <v>0.9290464905550602</v>
       </c>
       <c r="J3">
-        <v>0.8038998122413226</v>
+        <v>0.9290464905550602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P3">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q3">
-        <v>2.940421885227</v>
+        <v>9.391809930722665</v>
       </c>
       <c r="R3">
-        <v>26.463796967043</v>
+        <v>84.526289376504</v>
       </c>
       <c r="S3">
-        <v>0.07934939700932261</v>
+        <v>0.1027890650379865</v>
       </c>
       <c r="T3">
-        <v>0.07934939700932261</v>
+        <v>0.1027890650379865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.183851</v>
+        <v>3.781261333333333</v>
       </c>
       <c r="H4">
-        <v>3.551553</v>
+        <v>11.343784</v>
       </c>
       <c r="I4">
-        <v>0.8038998122413226</v>
+        <v>0.9290464905550602</v>
       </c>
       <c r="J4">
-        <v>0.8038998122413226</v>
+        <v>0.9290464905550602</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P4">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q4">
-        <v>22.524989731029</v>
+        <v>71.94560185671199</v>
       </c>
       <c r="R4">
-        <v>202.724907579261</v>
+        <v>647.5104167104079</v>
       </c>
       <c r="S4">
-        <v>0.6078530301308623</v>
+        <v>0.7874117132902427</v>
       </c>
       <c r="T4">
-        <v>0.6078530301308624</v>
+        <v>0.7874117132902427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.866352</v>
       </c>
       <c r="I5">
-        <v>0.1961001877586775</v>
+        <v>0.07095350944493985</v>
       </c>
       <c r="J5">
-        <v>0.1961001877586775</v>
+        <v>0.07095350944493985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N5">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q5">
-        <v>1.054880398901333</v>
+        <v>0.271070278224</v>
       </c>
       <c r="R5">
-        <v>9.493923590112001</v>
+        <v>2.439632504016</v>
       </c>
       <c r="S5">
-        <v>0.02846670540384464</v>
+        <v>0.002966740241099393</v>
       </c>
       <c r="T5">
-        <v>0.02846670540384464</v>
+        <v>0.002966740241099392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.866352</v>
       </c>
       <c r="I6">
-        <v>0.1961001877586775</v>
+        <v>0.07095350944493985</v>
       </c>
       <c r="J6">
-        <v>0.1961001877586775</v>
+        <v>0.07095350944493985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.451331</v>
       </c>
       <c r="O6">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P6">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q6">
         <v>0.7172750571679999</v>
@@ -818,10 +818,10 @@
         <v>6.455475514512</v>
       </c>
       <c r="S6">
-        <v>0.01935618271720024</v>
+        <v>0.007850247507691409</v>
       </c>
       <c r="T6">
-        <v>0.01935618271720024</v>
+        <v>0.007850247507691407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.866352</v>
       </c>
       <c r="I7">
-        <v>0.1961001877586775</v>
+        <v>0.07095350944493985</v>
       </c>
       <c r="J7">
-        <v>0.1961001877586775</v>
+        <v>0.07095350944493985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>57.080637</v>
       </c>
       <c r="O7">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P7">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q7">
         <v>5.494658225135999</v>
@@ -880,10 +880,10 @@
         <v>49.451924026224</v>
       </c>
       <c r="S7">
-        <v>0.1482772996376326</v>
+        <v>0.06013652169614905</v>
       </c>
       <c r="T7">
-        <v>0.1482772996376326</v>
+        <v>0.06013652169614905</v>
       </c>
     </row>
   </sheetData>
